--- a/web/tmp/MAU_TIEN_LUONG_HE_SO_02.xlsx
+++ b/web/tmp/MAU_TIEN_LUONG_HE_SO_02.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t xml:space="preserve">    TỔNG CỤC HẢI QUAN</t>
   </si>
@@ -65,9 +65,6 @@
     <t>PC ƯĐ NGHỀ</t>
   </si>
   <si>
-    <t>PC CÔNG VỤ</t>
-  </si>
-  <si>
     <t>PC KHÁC</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
   </si>
   <si>
     <t>%ƯĐ NGHỀ</t>
-  </si>
-  <si>
-    <t>%PC CÔNG VỤ</t>
   </si>
   <si>
     <t>TỔNG HS LƯƠNG, PC</t>
@@ -146,29 +140,34 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -363,25 +362,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -403,6 +396,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -413,24 +430,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -730,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6:AA7"/>
+      <selection activeCell="O7" sqref="O1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -741,311 +740,275 @@
     <col min="2" max="2" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18.75" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:26" ht="18.75" customHeight="1">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
     </row>
-    <row r="2" spans="1:28" ht="18.75" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:26" ht="18.75" customHeight="1">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
     </row>
-    <row r="3" spans="1:28" ht="25.5" customHeight="1">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:26" ht="25.5" customHeight="1">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="1"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="18.75">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
+    <row r="4" spans="1:26" ht="18.75">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
     </row>
-    <row r="5" spans="1:28">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:26">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="28" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="U5" s="7" t="s">
+    </row>
+    <row r="6" spans="1:26" ht="15" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="28"/>
+      <c r="S6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="22" t="s">
+      <c r="T6" s="18" t="s">
         <v>25</v>
       </c>
+      <c r="U6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="X6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z6" s="16"/>
     </row>
-    <row r="6" spans="1:28" ht="15" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="16" t="s">
+    <row r="7" spans="1:26" ht="101.25" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" s="10"/>
-      <c r="S6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T6" s="28"/>
-      <c r="U6" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="V6" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="W6" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="X6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y6" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z6" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA6" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB6" s="22"/>
-    </row>
-    <row r="7" spans="1:28" ht="101.25" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="22"/>
+        <v>30</v>
+      </c>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="U5:AA5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="F5:S5"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
+  <mergeCells count="31">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A5:A7"/>
@@ -1053,15 +1016,30 @@
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A4:AB4"/>
-    <mergeCell ref="D2:AB2"/>
-    <mergeCell ref="D1:AA1"/>
-    <mergeCell ref="A3:AA3"/>
-    <mergeCell ref="AB5:AB7"/>
+    <mergeCell ref="A4:Z4"/>
+    <mergeCell ref="D2:Z2"/>
+    <mergeCell ref="D1:Y1"/>
+    <mergeCell ref="A3:Y3"/>
+    <mergeCell ref="Z5:Z7"/>
     <mergeCell ref="M6:N6"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="S5:Y5"/>
     <mergeCell ref="O6:P6"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="F5:Q5"/>
     <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
